--- a/학습자료/단답형/오답노트/오답노트_무한반복_연표_한국사_연표_5 일제강점기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_연표_한국사_연표_5 일제강점기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,24 +2038,2470 @@
           <t>구월산대 결성</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1920</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>20230113</t>
-        </is>
+      <c r="B80" t="n">
+        <v>15</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D80" t="n">
+        <v>20230113</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>23시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>신은행령 제정</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>38</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1927</v>
+      </c>
+      <c r="D81" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>임시정부 2차 개헌</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>23</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D82" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>한국광복운동단체 연합회 결성</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>40</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D83" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>구월산대 결성</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>19</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D84" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>황국 신민 서사 제정</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>38</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D85" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>만보산 사건</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>45</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D86" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>조선어연구회 설립</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>25</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D87" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>임야조사령 제정</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>11</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1918</v>
+      </c>
+      <c r="D88" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>14시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>구월산대 결성</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>19</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D89" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>14시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>만보산 사건</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>14시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>제4차 조선교육령 시행</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>37</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D91" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>14시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>대한 통의부 결성</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>23</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D92" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>14시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>조선사편수회 설치</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>24</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D93" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>14시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>만보산 사건</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>22</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D94" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>14시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>조선어연구회 설립</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>24</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D95" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>14시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>한국광복운동단체 연합회 결성</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>38</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D96" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>14시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>만보산 사건</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>21</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D97" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>14시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>대한 통의부 결성</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>1922</v>
+      </c>
+      <c r="D98" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>14시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>송죽회 결성</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D99" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>14시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>임금 통제령 실시</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="n">
+        <v>1939</v>
+      </c>
+      <c r="D100" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>14시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>부전강 수력 발전소 건설</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>27</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1926</v>
+      </c>
+      <c r="D101" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>14시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>임시정부 연통제 와해</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>23</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D102" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>14시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>임시정부 연통제 와해</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>22</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D103" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>14시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>임금 통제령 실시</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>36</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1939</v>
+      </c>
+      <c r="D104" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>14시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>상하이 사변</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>1932</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>14시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>암태도 소작쟁의</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>1923</v>
+      </c>
+      <c r="D106" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>14시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>조선공산당 창당</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>30</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D107" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>14시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>소련 한국인 강제 이주</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D108" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>14시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>백산상회 설립</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>1914</v>
+      </c>
+      <c r="D109" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>서일 김좌진 등 북로군정서 설치</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>20</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D110" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>수양동우회 결성</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>15</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1926</v>
+      </c>
+      <c r="D111" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>신간회 창립</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>26</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1927</v>
+      </c>
+      <c r="D112" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>14시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>박은식 임시정부 2대 대통령 취임</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>23</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D113" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>14시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>조선산직장려계 결성</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>38</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D114" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>14시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>광주 학생 항일운동</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>1929</v>
+      </c>
+      <c r="D115" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>14시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>김좌진 지청천 등 혁신의회 결성</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>1928</v>
+      </c>
+      <c r="D116" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>제1차 조선교육령 제정</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>10</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1911</v>
+      </c>
+      <c r="D117" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>조선일보 문자 보급 운동</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="n">
+        <v>1929</v>
+      </c>
+      <c r="D118" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>지원병제도 실시</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D119" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>국민학교령 제정</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>37</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D120" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>김구 등 한국국민당 설립</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D121" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>연초전매령 실시</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D122" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>한국광복군 창설</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>동북인민혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D124" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>이회영 이동녕 이시영 등 신흥무관학교 설립</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D125" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>이승만의 국제연맹 위임통치청원</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D126" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>14시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>신민부 설립</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>26</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D127" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>14시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>경학사 부민단으로 변경</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>19</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D128" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>14시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>조선 의용대 결성</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D129" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>14시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>영릉가 전투</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>33</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1932</v>
+      </c>
+      <c r="D130" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>14시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>조선청년총동맹 결성</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D131" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>14시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>청구학회 결성</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D132" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>14시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>사립학교 규칙 제정</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="n">
+        <v>1911</v>
+      </c>
+      <c r="D133" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>14시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>중일 전쟁</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D134" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>14시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>흥남 질소 비료 공장 건설</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="n">
+        <v>1927</v>
+      </c>
+      <c r="D135" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>14시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>이상재 등 조선교육회 설립</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D136" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>제3차 조선교육령 시행</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D137" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>국민복령 제정</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D138" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>조선 의용대 결성</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>35</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D139" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>김좌진 지청천 등 혁신의회 결성</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>20</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1928</v>
+      </c>
+      <c r="D140" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>연초전매령 실시</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>38</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D141" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>한국광복운동단체 연합회 결성</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>38</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D142" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>흥남 질소 비료 공장 건설</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>26</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1927</v>
+      </c>
+      <c r="D143" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>14시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>이회영 이동녕 이시영 등 신흥무관학교 설립</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D144" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>14시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>국민학교령 제정</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>11</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D145" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>국민복령 제정</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D146" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>지원병제도 실시</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>40</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D147" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>제3차 조선교육령 시행</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>41</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D148" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>조선청년총동맹 결성</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>19</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D149" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>김구 등 한국국민당 설립</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D150" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>신민부 설립</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D151" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>서일 김좌진 등 북로군정서 설치</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>20</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D152" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>제1차 조선교육령 제정</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="n">
+        <v>1911</v>
+      </c>
+      <c r="D153" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>청구학회 결성</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D154" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>조선청년총동맹 결성</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>25</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D155" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>광주 학생 항일운동</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>26</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1929</v>
+      </c>
+      <c r="D156" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>이상재 등 조선교육회 설립</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D157" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>서일 김좌진 등 북로군정서 설치</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D158" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>동북인민혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D159" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>한국광복군 창설</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D160" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>조선 의용대 결성</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>35</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1938</v>
+      </c>
+      <c r="D161" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>흥남 질소 비료 공장 건설</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>26</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1927</v>
+      </c>
+      <c r="D162" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>한국광복운동단체 연합회 결성</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>24</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D163" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>국민복령 제정</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D164" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>이상재 등 조선교육회 설립</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D165" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>한국광복운동단체 연합회 결성</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>38</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D166" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>국민복령 제정</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>41</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D167" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>김구 등 한국국민당 설립</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>30</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D168" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>14시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>동북인민혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>38</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D169" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>14시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>흥남 질소 비료 공장 건설</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>26</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1927</v>
+      </c>
+      <c r="D170" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>14시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>조선청년총동맹 결성</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>25</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1924</v>
+      </c>
+      <c r="D171" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>14시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>이상재 등 조선교육회 설립</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>21</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D172" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>14시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>이상재 등 조선교육회 설립</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>21</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D173" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>14시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>국민복령 제정</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>41</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D174" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>14시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>동북인민혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>35</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D175" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>14시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>안악 사건</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>11</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D176" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>조선광문회 설립</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D177" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>보천보 전투</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>38</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D178" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>15시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>총독부 중추원 관제 공포</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D179" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>15시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>조선민족전선연맹 결성</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D180" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>15시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>안창호 등 한국 독립 유일당 북경 촉성회 결성</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="n">
+        <v>1926</v>
+      </c>
+      <c r="D181" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>15시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>전국연합진선협회 결성</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="n">
+        <v>1939</v>
+      </c>
+      <c r="D182" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>15시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>참의부 설립</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="n">
+        <v>1923</v>
+      </c>
+      <c r="D183" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>15시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>대한독립군단 결성</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="n">
+        <v>1920</v>
+      </c>
+      <c r="D184" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>15시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>채기중 박상진 대한광복회 결성</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D185" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>15시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>쌍성보 전투</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="n">
+        <v>1932</v>
+      </c>
+      <c r="D186" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>15시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>흥경성 전투</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="n">
+        <v>1933</v>
+      </c>
+      <c r="D187" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>15시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>관동 대학살</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="n">
+        <v>1923</v>
+      </c>
+      <c r="D188" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>15시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>신한혁명당 결성</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D189" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>부민단 한족회로 변경</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>12</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D190" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>김구 한인애국단 결성</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>30</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D191" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>일본 상품에 대한 관세 철폐</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>20</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1923</v>
+      </c>
+      <c r="D192" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>신채호 조선혁명선언 작성</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>1923</v>
+      </c>
+      <c r="D193" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>조선 태형령 제정</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>10</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D194" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>박은식 임시정부 2대 대통령 취임</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>23</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D195" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>한성정부 수립</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D196" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>임금 통제령 실시</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>41</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1939</v>
+      </c>
+      <c r="D197" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>15시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>안창호 흥사단 결성</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D198" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>15시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>징병제도 실시</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>40</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1944</v>
+      </c>
+      <c r="D199" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>15시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>자치론 대두</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="n">
+        <v>1923</v>
+      </c>
+      <c r="D200" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>15시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>조선독립동맹 결성</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="n">
+        <v>1942</v>
+      </c>
+      <c r="D201" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>15시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>남면북양 정책</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>20230114</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
         </is>
       </c>
     </row>
